--- a/biology/Médecine/Classe_ATC_B01/Classe_ATC_B01.xlsx
+++ b/biology/Médecine/Classe_ATC_B01/Classe_ATC_B01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC B01, dénommée « Agents antithrombotiques », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QB01[2]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique B de la classification, intitulé « Sang et organes hématopoïétiques ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC B01, dénommée « Agents antithrombotiques », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QB01. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique B de la classification, intitulé « Sang et organes hématopoïétiques ».
 </t>
         </is>
       </c>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>B01AA Antivitamines K
-B01AA01 Dicoumarol
+          <t>B01AA Antivitamines K</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>B01AA01 Dicoumarol
 B01AA02 Phénindione
 B01AA03 Warfarine
 B01AA04 Phénprocoumone
@@ -523,9 +540,43 @@
 B01AA09 Clorindione
 B01AA10 Diphénadione
 B01AA11 Tioclomarol (en)
-B01AA12 Fluindione
-B01AB Groupe de l'héparine
-B01AB01 Héparine
+B01AA12 Fluindione</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classe_ATC_B01</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_B01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>B01A Antithrombotiques</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>B01AB Groupe de l'héparine</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>B01AB01 Héparine
 B01AB02 Antithrombine III
 B01AB04 Daltéparine
 B01AB05 Enoxaparine
@@ -536,9 +587,43 @@
 B01AB10 Tinzaparine (en)
 B01AB11 Sulodexide (en)
 B01AB12 Bémiparine (en)
-B01AB51 Héparine en association
-B01AC Inhibiteurs de l'agrégation plaquettaire, héparine exclue
-B01AC01 Ditazole (en)
+B01AB51 Héparine en association</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classe_ATC_B01</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_B01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>B01A Antithrombotiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>B01AC Inhibiteurs de l'agrégation plaquettaire, héparine exclue</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>B01AC01 Ditazole (en)
 B01AC02 Cloricromène (en)
 B01AC03 Picotamide (en)
 B01AC04 Clopidogrel
@@ -563,9 +648,43 @@
 B01AC26 Vorapaxar
 B01AC27 Sélexipag
 B01AC30 Associations d'inhibiteurs de l'agrégation plaquettaire
-B01AC56 Acide acétylsalicylique et inhibiteurs de pompe à protons
-B01AD Enzymes
-B01AD01 Streptokinase
+B01AC56 Acide acétylsalicylique et inhibiteurs de pompe à protons</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classe_ATC_B01</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_B01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>B01A Antithrombotiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>B01AD Enzymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>B01AD01 Streptokinase
 B01AD02 Altéplase
 B01AD03 Anistreplase (en)
 B01AD04 Urokinase
@@ -576,21 +695,123 @@
 B01AD09 Ancrod
 B01AD10 Drotrécogine alfa (activée) (en)
 B01AD11 Ténectéplase
-B01AD12 Protéine C
-B01AE Inhibiteurs directs de la thrombine
-B01AE01 Désirudine
+B01AD12 Protéine C</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Classe_ATC_B01</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_B01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>B01A Antithrombotiques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>B01AE Inhibiteurs directs de la thrombine</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>B01AE01 Désirudine
 B01AE02 Lépirudine
 B01AE03 Argatroban
 B01AE04 Mélagatran
 B01AE05 Ximélagatran
 B01AE06 Bivalirudine
-B01AE07 Dabigatran étexilate
-B01AF Inhibiteurs directs du facteur Xa
-B01AF01 Rivaroxaban
+B01AE07 Dabigatran étexilate</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Classe_ATC_B01</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_B01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>B01A Antithrombotiques</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>B01AF Inhibiteurs directs du facteur Xa</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>B01AF01 Rivaroxaban
 B01AF02 Apixaban
-B01AF03 Edoxaban
-B01AX Autres antithrombotiques
-B01AX01 Défibrotide (en)
+B01AF03 Edoxaban</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Classe_ATC_B01</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_B01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>B01A Antithrombotiques</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>B01AX Autres antithrombotiques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>B01AX01 Défibrotide (en)
 B01AX04 Dermatan sulfate
 B01AX05 Fondaparinux</t>
         </is>
